--- a/BZAN545 Assignment Task Tracker.xlsx
+++ b/BZAN545 Assignment Task Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/711750426c0d18e9/Desktop/BAS 545/BZAN545Group/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595CFD41-1327-484E-AB7F-273D17F80E85}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7937156-C6A6-48EA-B024-3EFCE2FC3E3B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A6EB96AE-5CA5-4590-9243-E026D124382F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Figured out who wanted to take on what tasks</t>
+  </si>
+  <si>
+    <t>Practice Dash and Data manipulation</t>
+  </si>
+  <si>
+    <t>Python, VSCode</t>
+  </si>
+  <si>
+    <t>Wrote up practice code via data provided by team member Afia</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D18DF-1236-473D-92F5-55CC9B158FF1}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,7 +551,7 @@
     <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,6 +625,23 @@
         <v>45931</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BZAN545 Assignment Task Tracker.xlsx
+++ b/BZAN545 Assignment Task Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/711750426c0d18e9/Desktop/BAS 545/BZAN545Group/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7937156-C6A6-48EA-B024-3EFCE2FC3E3B}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89BEF75-D6D3-49B4-A7A3-9739D0D0BA29}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A6EB96AE-5CA5-4590-9243-E026D124382F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Wrote up practice code via data provided by team member Afia</t>
+  </si>
+  <si>
+    <t>Installation and attempt SQL code</t>
+  </si>
+  <si>
+    <t>SQL, VSCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked together to troubleshoot errors </t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D18DF-1236-473D-92F5-55CC9B158FF1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,6 +651,23 @@
         <v>45958</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <v>45967</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BZAN545 Assignment Task Tracker.xlsx
+++ b/BZAN545 Assignment Task Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/711750426c0d18e9/Desktop/BAS 545/BZAN545Group/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89BEF75-D6D3-49B4-A7A3-9739D0D0BA29}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{675179A0-8355-4E88-8946-422C6CFCFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875756A4-6ABD-47E6-BADB-B406C85F18D7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A6EB96AE-5CA5-4590-9243-E026D124382F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t xml:space="preserve">Worked together to troubleshoot errors </t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask and Dash code </t>
+  </si>
+  <si>
+    <t>Test and integrate code</t>
+  </si>
+  <si>
+    <t>Google Slides</t>
+  </si>
+  <si>
+    <t>Python, SQL, VSCode</t>
+  </si>
+  <si>
+    <t>Collaborated to work on different tasks with code</t>
   </si>
 </sst>
 </file>
@@ -547,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D18DF-1236-473D-92F5-55CC9B158FF1}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,6 +686,46 @@
         <v>45967</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
